--- a/documentos/Planeación.xlsx
+++ b/documentos/Planeación.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brendiiZ\Desktop\6 semestre\Adm de Proyectos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brendiiZ\Documents\GitHub\administracion-de-proyectos\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
-  <si>
-    <t xml:space="preserve">Modelo Youdon </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t xml:space="preserve">1) Modelo Ambiental </t>
   </si>
@@ -177,6 +174,18 @@
   </si>
   <si>
     <t xml:space="preserve">* Plantear casos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelo Yourdon </t>
+  </si>
+  <si>
+    <t>Irving</t>
+  </si>
+  <si>
+    <t>Brenda</t>
+  </si>
+  <si>
+    <t>Sealtiel</t>
   </si>
 </sst>
 </file>
@@ -300,7 +309,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -323,16 +332,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -343,52 +388,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -740,7 +794,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,422 +805,426 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="A1" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="10">
+        <v>42069</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="12">
-        <v>42069</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10">
+        <v>42076</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="12">
-        <v>42076</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10">
+        <v>42083</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="10">
+        <v>42083</v>
+      </c>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="10">
+        <v>42090</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="10">
+        <v>42090</v>
+      </c>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="10">
+        <v>42097</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="12">
-        <v>42083</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="12">
-        <v>42083</v>
-      </c>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="12">
-        <v>42090</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="12">
-        <v>42090</v>
-      </c>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="12">
-        <v>42097</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
-      <c r="D23" s="12">
+      <c r="D23" s="10">
         <v>42104</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>41</v>
+      <c r="E23" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="A25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
-      <c r="D26" s="12">
+      <c r="D26" s="10">
         <v>42111</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>42</v>
+      <c r="E26" s="11" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="6">
+        <v>42118</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="7">
-        <v>42118</v>
-      </c>
-      <c r="E29" s="8" t="s">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="6">
+        <v>42125</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="7">
-        <v>42125</v>
-      </c>
-      <c r="E30" s="8" t="s">
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="10">
+        <v>42132</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="12">
-        <v>42132</v>
-      </c>
-      <c r="E31" s="9" t="s">
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="6">
+        <v>42139</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="6">
+        <v>42146</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="7">
-        <v>42139</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="7">
-        <v>42146</v>
-      </c>
-      <c r="E35" s="8" t="s">
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="6">
+        <v>42153</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="7">
-        <v>42153</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
+  <mergeCells count="55">
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D31:D32"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="A33:C33"/>
@@ -1183,22 +1241,29 @@
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A21:C21"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/documentos/Planeación.xlsx
+++ b/documentos/Planeación.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t xml:space="preserve">1) Modelo Ambiental </t>
   </si>
@@ -388,52 +388,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -473,15 +473,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
+      <xdr:colOff>38099</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>140494</xdr:rowOff>
+      <xdr:rowOff>169069</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -505,7 +505,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7162799" y="409575"/>
+          <a:off x="7077074" y="438150"/>
           <a:ext cx="4581525" cy="3436144"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -793,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,36 +805,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
@@ -842,10 +842,10 @@
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="26"/>
-      <c r="D3" s="10">
+      <c r="D3" s="11">
         <v>42069</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="8" t="s">
         <v>35</v>
       </c>
       <c r="F3" t="s">
@@ -853,13 +853,13 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
       <c r="F4" t="s">
         <v>52</v>
       </c>
@@ -870,253 +870,262 @@
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="26"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
       <c r="F5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="11">
         <v>42076</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="8" t="s">
         <v>36</v>
       </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="10">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="11">
         <v>42083</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="11"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="10">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="11">
         <v>42083</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="10">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="11">
         <v>42090</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="11"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="10">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="11">
         <v>42090</v>
       </c>
-      <c r="E17" s="11"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="5"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="10">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="11">
         <v>42097</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="10">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="11">
         <v>42104</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="10">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="11">
         <v>42111</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="6">
         <v>42118</v>
       </c>
@@ -1125,11 +1134,11 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="6">
         <v>42125</v>
       </c>
@@ -1138,42 +1147,42 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="10">
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="11">
         <v>42132</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="6">
         <v>42139</v>
       </c>
@@ -1182,11 +1191,11 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="6">
         <v>42146</v>
       </c>
@@ -1195,11 +1204,11 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="6">
         <v>42153</v>
       </c>
@@ -1209,6 +1218,45 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="A1:E1"/>
@@ -1225,45 +1273,6 @@
     <mergeCell ref="D20:D22"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/documentos/Planeación.xlsx
+++ b/documentos/Planeación.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brendiiZ\Documents\GitHub\administracion-de-proyectos\documentos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t xml:space="preserve">1) Modelo Ambiental </t>
   </si>
@@ -186,6 +181,9 @@
   </si>
   <si>
     <t>Sealtiel</t>
+  </si>
+  <si>
+    <t>brenda</t>
   </si>
 </sst>
 </file>
@@ -571,7 +569,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -606,7 +604,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -783,7 +781,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -793,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,6 +926,9 @@
       <c r="E9" s="8" t="s">
         <v>37</v>
       </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
@@ -937,6 +938,12 @@
       <c r="C10" s="22"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
@@ -957,6 +964,9 @@
         <v>42083</v>
       </c>
       <c r="E12" s="8"/>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
@@ -966,6 +976,9 @@
       <c r="C13" s="22"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">

--- a/documentos/Planeación.xlsx
+++ b/documentos/Planeación.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t xml:space="preserve">1) Modelo Ambiental </t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>Sealtiel</t>
+  </si>
+  <si>
+    <t>* Diagrama E-R</t>
   </si>
 </sst>
 </file>
@@ -388,61 +391,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -794,7 +797,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A9" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,47 +808,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="11">
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="10">
         <v>42069</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F3" t="s">
@@ -853,48 +856,48 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
       <c r="F4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
       <c r="F5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="11">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10">
         <v>42076</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F7" t="s">
@@ -902,13 +905,13 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
       <c r="F8" t="s">
         <v>52</v>
       </c>
@@ -917,55 +920,55 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="11">
+      <c r="A9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10">
         <v>42083</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="8"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="11">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="10">
         <v>42083</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -973,10 +976,10 @@
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>42090</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="11" t="s">
         <v>38</v>
       </c>
     </row>
@@ -986,17 +989,17 @@
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="8"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
@@ -1004,10 +1007,10 @@
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <v>42090</v>
       </c>
-      <c r="E17" s="8"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
@@ -1015,108 +1018,108 @@
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="5"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="11">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="10">
         <v>42097</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="11">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="10">
         <v>42104</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="11" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="11">
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="10">
         <v>42111</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
@@ -1134,11 +1137,11 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="6">
         <v>42125</v>
       </c>
@@ -1147,42 +1150,42 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="11">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="10">
         <v>42132</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
       <c r="D34" s="6">
         <v>42139</v>
       </c>
@@ -1191,11 +1194,11 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="6">
         <v>42146</v>
       </c>
@@ -1218,29 +1221,22 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D31:D32"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="A33:C33"/>
@@ -1257,22 +1253,29 @@
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A21:C21"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/documentos/Planeación.xlsx
+++ b/documentos/Planeación.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brendiiZ\Documents\GitHub\administracion-de-proyectos\documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brendiiZ\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t xml:space="preserve">1) Modelo Ambiental </t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>Sealtiel</t>
+  </si>
+  <si>
+    <t>* Diagrama de E-R</t>
   </si>
 </sst>
 </file>
@@ -388,61 +391,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -794,7 +797,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A9" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,47 +808,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="11">
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="10">
         <v>42069</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F3" t="s">
@@ -853,48 +856,48 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
       <c r="F4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
       <c r="F5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="11">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10">
         <v>42076</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F7" t="s">
@@ -902,13 +905,13 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
       <c r="F8" t="s">
         <v>52</v>
       </c>
@@ -917,55 +920,55 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="11">
+      <c r="A9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10">
         <v>42083</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="8"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="11">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="10">
         <v>42083</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -973,10 +976,10 @@
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>42090</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="11" t="s">
         <v>38</v>
       </c>
     </row>
@@ -986,17 +989,17 @@
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="8"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
@@ -1004,10 +1007,10 @@
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <v>42090</v>
       </c>
-      <c r="E17" s="8"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
@@ -1015,108 +1018,108 @@
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="5"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="11">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="10">
         <v>42097</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="11">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="10">
         <v>42104</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="11" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="11">
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="10">
         <v>42111</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
@@ -1134,11 +1137,11 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="6">
         <v>42125</v>
       </c>
@@ -1147,42 +1150,42 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="11">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="10">
         <v>42132</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
       <c r="D34" s="6">
         <v>42139</v>
       </c>
@@ -1191,11 +1194,11 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="6">
         <v>42146</v>
       </c>
@@ -1218,29 +1221,22 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D31:D32"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="A33:C33"/>
@@ -1257,22 +1253,29 @@
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A21:C21"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
